--- a/H_SK_TST.xlsx
+++ b/H_SK_TST.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvt-aellery\Desktop\H_SK post_changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.17.152.102\ftp\Adam_ftp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="885">
   <si>
     <t>Horizon</t>
   </si>
@@ -93,6 +93,12 @@
     <t>H_SK_TT011S</t>
   </si>
   <si>
+    <t>H_SK Station Inlet Temperature Snapshot</t>
+  </si>
+  <si>
+    <t>H_SK_TT001S</t>
+  </si>
+  <si>
     <t>40147 unsign 16 int</t>
   </si>
   <si>
@@ -183,6 +189,9 @@
     <t>H_SK_PDT001</t>
   </si>
   <si>
+    <t>H_SK_P001P</t>
+  </si>
+  <si>
     <t>40138 unsign 16 int</t>
   </si>
   <si>
@@ -237,6 +246,15 @@
     <t>H_SK_PIDS_SP</t>
   </si>
   <si>
+    <t>40133 unsign 16 int</t>
+  </si>
+  <si>
+    <t>H_SK VFD-004 Speed Feedback (Future)</t>
+  </si>
+  <si>
+    <t>H_SK_VFD004SPD</t>
+  </si>
+  <si>
     <t>40132 unsign 16 int</t>
   </si>
   <si>
@@ -291,6 +309,24 @@
     <t>H_SK_TT001</t>
   </si>
   <si>
+    <t>40124 unsign 16 int</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Discharge Pressure (Future)</t>
+  </si>
+  <si>
+    <t>H_SK_PT142</t>
+  </si>
+  <si>
+    <t>40123 unsign 16 int</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Suction Pressure (Future)</t>
+  </si>
+  <si>
+    <t>H_SK_PT141</t>
+  </si>
+  <si>
     <t>40122 unsign 16 int</t>
   </si>
   <si>
@@ -570,7 +606,7 @@
     <t>Remote Information</t>
   </si>
   <si>
-    <t>Analog &amp; Tank(T) Points List generated at 2023/01/30 09:49</t>
+    <t>Analog &amp; Tank(T) Points List generated at 2023/01/30 09:35</t>
   </si>
   <si>
     <t>Pembina Pipeline Corp.</t>
@@ -594,7 +630,7 @@
     <t>Rate Name</t>
   </si>
   <si>
-    <t>Rate Points List generated at 2023/01/30 09:49</t>
+    <t>Rate Points List generated at 2023/01/30 09:35</t>
   </si>
   <si>
     <t>OPP/F</t>
@@ -705,6 +741,18 @@
     <t>H_SK_STA_FLOWPATH</t>
   </si>
   <si>
+    <t>VLVLOC</t>
+  </si>
+  <si>
+    <t>40099/05</t>
+  </si>
+  <si>
+    <t>H_SK Station Valve Mode</t>
+  </si>
+  <si>
+    <t>H_SK_VALVE_MODE</t>
+  </si>
+  <si>
     <t>40099/04</t>
   </si>
   <si>
@@ -993,6 +1041,15 @@
     <t>TIME/O</t>
   </si>
   <si>
+    <t>40096/15</t>
+  </si>
+  <si>
+    <t>H_SK VFD-004 Pump-004 Start Inhibit (Future)</t>
+  </si>
+  <si>
+    <t>H_SK_VFD004_ST_INH</t>
+  </si>
+  <si>
     <t>40096/14</t>
   </si>
   <si>
@@ -1122,6 +1179,18 @@
     <t>H_SK_4160V_F</t>
   </si>
   <si>
+    <t>480V/F</t>
+  </si>
+  <si>
+    <t>40096/01</t>
+  </si>
+  <si>
+    <t>H_SK Common 480 VAC Power Failure</t>
+  </si>
+  <si>
+    <t>H_SK_480V_F</t>
+  </si>
+  <si>
     <t>24V/FL</t>
   </si>
   <si>
@@ -1281,6 +1350,24 @@
     <t>H_SK_ESDV001_HS</t>
   </si>
   <si>
+    <t>40094/07</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Discharge Valve Mode</t>
+  </si>
+  <si>
+    <t>H_SK_UV142_HS</t>
+  </si>
+  <si>
+    <t>40094/06</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Suction Valve Mode</t>
+  </si>
+  <si>
+    <t>H_SK_UV141_HS</t>
+  </si>
+  <si>
     <t>40094/05</t>
   </si>
   <si>
@@ -1392,6 +1479,24 @@
     <t>H_SK_ESDV001_F</t>
   </si>
   <si>
+    <t>40093/07</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Discharge Valve Fail</t>
+  </si>
+  <si>
+    <t>H_SK_UV142_F</t>
+  </si>
+  <si>
+    <t>40093/06</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Suction Valve Fail</t>
+  </si>
+  <si>
+    <t>H_SK_UV141_F</t>
+  </si>
+  <si>
     <t>40093/05</t>
   </si>
   <si>
@@ -1446,6 +1551,33 @@
     <t>H_SK_UV111_F</t>
   </si>
   <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>40092/15</t>
+  </si>
+  <si>
+    <t>40092/14</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Discharge Valve (Future)</t>
+  </si>
+  <si>
+    <t>H_SK_UV142</t>
+  </si>
+  <si>
+    <t>40092/13</t>
+  </si>
+  <si>
+    <t>40092/12</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Suction Valve (Future)</t>
+  </si>
+  <si>
+    <t>H_SK_UV141</t>
+  </si>
+  <si>
     <t>40092/11</t>
   </si>
   <si>
@@ -1662,6 +1794,18 @@
     <t>H_SK_VFD002FL</t>
   </si>
   <si>
+    <t>VFD/WN</t>
+  </si>
+  <si>
+    <t>40090/10</t>
+  </si>
+  <si>
+    <t>H_SK VFD-002 Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_VFD002FW</t>
+  </si>
+  <si>
     <t>VFD</t>
   </si>
   <si>
@@ -1728,6 +1872,15 @@
     <t>H_SK_VFD001FL</t>
   </si>
   <si>
+    <t>40090/02</t>
+  </si>
+  <si>
+    <t>H_SK VFD-001 Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_VFD001FW</t>
+  </si>
+  <si>
     <t>40090/01</t>
   </si>
   <si>
@@ -1746,6 +1899,87 @@
     <t>H_SK_VFD001M</t>
   </si>
   <si>
+    <t>40089/15</t>
+  </si>
+  <si>
+    <t>H_SK VFD-004 Motor Speed Fail</t>
+  </si>
+  <si>
+    <t>H_SK_VFD004SPDF</t>
+  </si>
+  <si>
+    <t>R86TRP</t>
+  </si>
+  <si>
+    <t>40089/14</t>
+  </si>
+  <si>
+    <t>H_SK VFD-004 Breaker Relay 86 Tripped</t>
+  </si>
+  <si>
+    <t>H_SK_VFD00486</t>
+  </si>
+  <si>
+    <t>BREAKR</t>
+  </si>
+  <si>
+    <t>40089/13</t>
+  </si>
+  <si>
+    <t>H_SK VFD-004 Input Breaker Status</t>
+  </si>
+  <si>
+    <t>H_SK_VFD004FB005</t>
+  </si>
+  <si>
+    <t>40089/12</t>
+  </si>
+  <si>
+    <t>H_SK VFD-004 Ready</t>
+  </si>
+  <si>
+    <t>H_SK_VFD004R</t>
+  </si>
+  <si>
+    <t>VFDF/LK</t>
+  </si>
+  <si>
+    <t>40089/11</t>
+  </si>
+  <si>
+    <t>H_SK VFD-004 Drive Fault</t>
+  </si>
+  <si>
+    <t>H_SK_VFD004FL</t>
+  </si>
+  <si>
+    <t>40089/10</t>
+  </si>
+  <si>
+    <t>H_SK VFD-004 Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_VFD004FW</t>
+  </si>
+  <si>
+    <t>40089/09</t>
+  </si>
+  <si>
+    <t>H_SK VFD-004 Running Status</t>
+  </si>
+  <si>
+    <t>H_SK_VFD004</t>
+  </si>
+  <si>
+    <t>40089/08</t>
+  </si>
+  <si>
+    <t>H_SK VFD-004 Mode</t>
+  </si>
+  <si>
+    <t>H_SK_VFD004M</t>
+  </si>
+  <si>
     <t>40089/07</t>
   </si>
   <si>
@@ -1791,6 +2025,15 @@
     <t>H_SK_VFD003FL</t>
   </si>
   <si>
+    <t>40089/02</t>
+  </si>
+  <si>
+    <t>H_SK VFD-003 Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_VFD003FW</t>
+  </si>
+  <si>
     <t>40089/01</t>
   </si>
   <si>
@@ -1809,6 +2052,18 @@
     <t>H_SK_VFD003M</t>
   </si>
   <si>
+    <t>MF/W</t>
+  </si>
+  <si>
+    <t>40088/15</t>
+  </si>
+  <si>
+    <t>H_SK Pump-002 Mechanical Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_P002_MFW</t>
+  </si>
+  <si>
     <t>M/RSET</t>
   </si>
   <si>
@@ -1833,6 +2088,18 @@
     <t>H_SK_P002_MFL</t>
   </si>
   <si>
+    <t>E/WARN</t>
+  </si>
+  <si>
+    <t>40088/12</t>
+  </si>
+  <si>
+    <t>H_SK Pump-002 Electrical Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_P002_EFW</t>
+  </si>
+  <si>
     <t>ERESET</t>
   </si>
   <si>
@@ -1875,6 +2142,15 @@
     <t>H_SK_P002</t>
   </si>
   <si>
+    <t>40088/07</t>
+  </si>
+  <si>
+    <t>H_SK Pump-001 Mechanical Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_P001_MFW</t>
+  </si>
+  <si>
     <t>40088/06</t>
   </si>
   <si>
@@ -1893,6 +2169,15 @@
     <t>H_SK_P001_MFL</t>
   </si>
   <si>
+    <t>40088/04</t>
+  </si>
+  <si>
+    <t>H_SK Pump-001 Electrical Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_P001_EFW</t>
+  </si>
+  <si>
     <t>40088/03</t>
   </si>
   <si>
@@ -1929,9 +2214,90 @@
     <t>H_SK_P001</t>
   </si>
   <si>
+    <t>40087/15</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Mechanical Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_P004_MFW</t>
+  </si>
+  <si>
     <t>MRESET</t>
   </si>
   <si>
+    <t>40087/14</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Mechanical Fault Resetable</t>
+  </si>
+  <si>
+    <t>H_SK_P004_MFR</t>
+  </si>
+  <si>
+    <t>40087/13</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Mechanical Fault Lockout</t>
+  </si>
+  <si>
+    <t>H_SK_P004_MFL</t>
+  </si>
+  <si>
+    <t>40087/12</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Electrical Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_P004_EFW</t>
+  </si>
+  <si>
+    <t>40087/11</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Electrical Fault Resettable</t>
+  </si>
+  <si>
+    <t>H_SK_P004_EFR</t>
+  </si>
+  <si>
+    <t>40087/10</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Electrical Fault Lockout</t>
+  </si>
+  <si>
+    <t>H_SK_P004_EFL</t>
+  </si>
+  <si>
+    <t>40087/09</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Available To Run</t>
+  </si>
+  <si>
+    <t>H_SK_P004_AV</t>
+  </si>
+  <si>
+    <t>40087/08</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Status</t>
+  </si>
+  <si>
+    <t>H_SK_P004</t>
+  </si>
+  <si>
+    <t>40087/07</t>
+  </si>
+  <si>
+    <t>H_SK Pump-003 Mechanical Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_P003_MFW</t>
+  </si>
+  <si>
     <t>40087/06</t>
   </si>
   <si>
@@ -1950,6 +2316,15 @@
     <t>H_SK_P003_MFL</t>
   </si>
   <si>
+    <t>40087/04</t>
+  </si>
+  <si>
+    <t>H_SK Pump-003 Electrical Fault Warning</t>
+  </si>
+  <si>
+    <t>H_SK_P003_EFW</t>
+  </si>
+  <si>
     <t>40087/03</t>
   </si>
   <si>
@@ -1986,6 +2361,84 @@
     <t>H_SK_P003</t>
   </si>
   <si>
+    <t>HHPRS</t>
+  </si>
+  <si>
+    <t>40086/15</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Discharge Pressure High High Alar</t>
+  </si>
+  <si>
+    <t>H_SK_PAHH142</t>
+  </si>
+  <si>
+    <t>LLPRS</t>
+  </si>
+  <si>
+    <t>40086/13</t>
+  </si>
+  <si>
+    <t>H_SK Pump-004 Suction Pressure Low Low Alarm</t>
+  </si>
+  <si>
+    <t>H_SK_PALL141</t>
+  </si>
+  <si>
+    <t>40086/11</t>
+  </si>
+  <si>
+    <t>H_SK Pump-003 Discharge Pressure High High</t>
+  </si>
+  <si>
+    <t>H_SK_PAHH132</t>
+  </si>
+  <si>
+    <t>40086/09</t>
+  </si>
+  <si>
+    <t>H_SK Pump-003 Suction Pressure Low Low Alarm</t>
+  </si>
+  <si>
+    <t>H_SK_PALL131</t>
+  </si>
+  <si>
+    <t>40086/07</t>
+  </si>
+  <si>
+    <t>H_SK Pump-002 Discharge Pressure High High</t>
+  </si>
+  <si>
+    <t>H_SK_PAHH122</t>
+  </si>
+  <si>
+    <t>40086/05</t>
+  </si>
+  <si>
+    <t>H_SK Pump-002 Suction Pressure Low Low Alarm</t>
+  </si>
+  <si>
+    <t>H_SK_PALL121</t>
+  </si>
+  <si>
+    <t>40086/03</t>
+  </si>
+  <si>
+    <t>H_SK Pump-001 Discharge Pressure High High</t>
+  </si>
+  <si>
+    <t>H_SK_PAHH112</t>
+  </si>
+  <si>
+    <t>40086/01</t>
+  </si>
+  <si>
+    <t>H_SK Pump-001 Suction Pressure Low Low Alarm</t>
+  </si>
+  <si>
+    <t>H_SK_PALL111</t>
+  </si>
+  <si>
     <t>LLDISC</t>
   </si>
   <si>
@@ -1998,6 +2451,15 @@
     <t>H_SK_STN_DISC_PALL</t>
   </si>
   <si>
+    <t>H_SK Station Outlet Pressure Low Low Alarm (FM)</t>
+  </si>
+  <si>
+    <t>H_SK_STN_PALL015_FM</t>
+  </si>
+  <si>
+    <t>H_SK_STN_PALL015</t>
+  </si>
+  <si>
     <t>HIDISC</t>
   </si>
   <si>
@@ -2010,6 +2472,24 @@
     <t>H_SK_STN_DISC_PAH</t>
   </si>
   <si>
+    <t>HIPRS</t>
+  </si>
+  <si>
+    <t>H_SK_STN_PAH</t>
+  </si>
+  <si>
+    <t>NOPATH</t>
+  </si>
+  <si>
+    <t>40085/12</t>
+  </si>
+  <si>
+    <t>H_SK Station Flow Path</t>
+  </si>
+  <si>
+    <t>H_SK_SITE_FLOWPATH</t>
+  </si>
+  <si>
     <t>HISUMP</t>
   </si>
   <si>
@@ -2070,12 +2550,15 @@
     <t>H_SK_STN_SUCT_PAH</t>
   </si>
   <si>
-    <t>HHPRS</t>
-  </si>
-  <si>
     <t>40085/06</t>
   </si>
   <si>
+    <t>H_SK Station Outlet OPP Disc Pres Hi Hi (FM)</t>
+  </si>
+  <si>
+    <t>H_SK_PAHH013_FM</t>
+  </si>
+  <si>
     <t>H_SK Station Outlet OPP Disc Pres Hi Hi</t>
   </si>
   <si>
@@ -2106,6 +2589,36 @@
     <t>H_SK_PDAH001</t>
   </si>
   <si>
+    <t>40085/03</t>
+  </si>
+  <si>
+    <t>H_SK Station Outlet Pres. High High Alarm (FM)</t>
+  </si>
+  <si>
+    <t>H_SK_STN_PAHH_FM</t>
+  </si>
+  <si>
+    <t>H_SK Station Outlet Pressure High High Alarm</t>
+  </si>
+  <si>
+    <t>H_SK_STN_PAHH</t>
+  </si>
+  <si>
+    <t>40085/01</t>
+  </si>
+  <si>
+    <t>H_SK Station Inlet Pressure Low Low Alarm (FM)</t>
+  </si>
+  <si>
+    <t>H_SK_STN_PALL_FM</t>
+  </si>
+  <si>
+    <t>H_SK Station Inlet Pressure Low Low Alarm</t>
+  </si>
+  <si>
+    <t>H_SK_STN_PALL</t>
+  </si>
+  <si>
     <t>LOTEMP</t>
   </si>
   <si>
@@ -2172,7 +2685,7 @@
     <t>Status Name</t>
   </si>
   <si>
-    <t>Status/Digital Points List generated at 2023/01/30 09:49</t>
+    <t>Status/Digital Points List generated at 2023/01/30 09:35</t>
   </si>
 </sst>
 </file>
@@ -2525,7 +3038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2551,7 +3064,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2571,7 +3084,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2609,7 +3122,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2630,54 +3143,54 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2686,19 +3199,19 @@
         <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>1</v>
@@ -2709,10 +3222,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2721,19 +3234,19 @@
         <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>1</v>
@@ -2744,10 +3257,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2756,19 +3269,19 @@
         <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>1</v>
@@ -2779,10 +3292,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2794,13 +3307,13 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>1</v>
@@ -2811,10 +3324,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2826,13 +3339,13 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>1</v>
@@ -2843,10 +3356,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E15" s="1">
         <v>2015</v>
@@ -2858,13 +3371,13 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>1</v>
@@ -2875,10 +3388,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2887,19 +3400,19 @@
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>1</v>
@@ -2910,10 +3423,10 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -2922,13 +3435,13 @@
         <v>1440</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>2</v>
@@ -2942,10 +3455,10 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2954,13 +3467,13 @@
         <v>7000</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>2</v>
@@ -2974,10 +3487,10 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2986,13 +3499,13 @@
         <v>7000</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>2</v>
@@ -3006,10 +3519,10 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3018,13 +3531,13 @@
         <v>3300</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>2</v>
@@ -3038,10 +3551,10 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3050,13 +3563,13 @@
         <v>3300</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>2</v>
@@ -3070,10 +3583,10 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3082,13 +3595,13 @@
         <v>10000</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>2</v>
@@ -3102,10 +3615,10 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -3114,13 +3627,13 @@
         <v>7000</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>2</v>
@@ -3134,10 +3647,10 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -3146,13 +3659,13 @@
         <v>10000</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>2</v>
@@ -3166,10 +3679,10 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -3178,13 +3691,13 @@
         <v>10000</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>2</v>
@@ -3198,10 +3711,10 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -3210,13 +3723,13 @@
         <v>10000</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>2</v>
@@ -3230,10 +3743,10 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -3242,13 +3755,13 @@
         <v>10000</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>2</v>
@@ -3262,10 +3775,10 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -3274,13 +3787,13 @@
         <v>10000</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>2</v>
@@ -3294,10 +3807,10 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -3306,13 +3819,13 @@
         <v>10000</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>2</v>
@@ -3326,10 +3839,10 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -3338,13 +3851,13 @@
         <v>10000</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>2</v>
@@ -3358,10 +3871,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -3370,13 +3883,13 @@
         <v>10000</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>2</v>
@@ -3390,10 +3903,10 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -3402,13 +3915,13 @@
         <v>10000</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>2</v>
@@ -3422,25 +3935,25 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E36" s="1">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>2</v>
@@ -3454,25 +3967,25 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>2</v>
@@ -3486,25 +3999,25 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F39" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>2</v>
@@ -3518,25 +4031,25 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F40" s="1">
         <v>100</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>2</v>
@@ -3550,10 +4063,10 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -3562,13 +4075,13 @@
         <v>100</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>2</v>
@@ -3582,10 +4095,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -3594,13 +4107,13 @@
         <v>100</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>2</v>
@@ -3614,31 +4127,28 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>1</v>
@@ -3649,31 +4159,28 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>1</v>
@@ -3684,10 +4191,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -3696,13 +4203,13 @@
         <v>100</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>2</v>
@@ -3716,28 +4223,31 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>1</v>
@@ -3748,10 +4258,10 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -3760,16 +4270,19 @@
         <v>10000</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>1</v>
@@ -3780,25 +4293,25 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>2</v>
@@ -3812,25 +4325,25 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>2</v>
@@ -3844,25 +4357,25 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>75</v>
+        <v>10000</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>2</v>
@@ -3876,25 +4389,25 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>75</v>
+        <v>10000</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>2</v>
@@ -3908,31 +4421,28 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>3300</v>
+        <v>10000</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>1</v>
@@ -3943,25 +4453,25 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>2</v>
@@ -3975,25 +4485,25 @@
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>2</v>
@@ -4007,25 +4517,25 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>75</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>50</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>2</v>
@@ -4039,28 +4549,31 @@
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E59" s="1">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>1</v>
@@ -4071,60 +4584,57 @@
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>2</v>
@@ -4138,33 +4648,196 @@
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>50</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F64" s="1">
+        <v>100</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F65" s="1">
+        <v>100</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>100</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
         <v>100</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J63" s="1" t="s">
+      <c r="I69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P63" s="1" t="s">
+      <c r="L69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P69" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4202,7 +4875,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4222,7 +4895,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4260,7 +4933,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4281,49 +4954,49 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4334,7 +5007,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P189"/>
+  <dimension ref="A1:P250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4352,15 +5025,13 @@
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4380,7 +5051,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>713</v>
+        <v>884</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4418,7 +5089,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4439,56 +5110,56 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>712</v>
+        <v>883</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>711</v>
+        <v>882</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>710</v>
+        <v>881</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>709</v>
+        <v>880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>708</v>
+        <v>879</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>707</v>
+        <v>878</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>706</v>
+        <v>877</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>705</v>
+        <v>876</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>704</v>
+        <v>875</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>703</v>
+        <v>874</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -4497,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>702</v>
+        <v>873</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>2</v>
@@ -4506,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>695</v>
+        <v>866</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>0</v>
@@ -4514,10 +5185,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>701</v>
+        <v>872</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>700</v>
+        <v>871</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -4526,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>699</v>
+        <v>870</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>2</v>
@@ -4535,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>691</v>
+        <v>862</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>0</v>
@@ -4543,10 +5214,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>698</v>
+        <v>869</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>697</v>
+        <v>868</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -4555,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>696</v>
+        <v>867</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>2</v>
@@ -4564,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>695</v>
+        <v>866</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>0</v>
@@ -4572,10 +5243,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>694</v>
+        <v>865</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>693</v>
+        <v>864</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
@@ -4584,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>692</v>
+        <v>863</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>2</v>
@@ -4593,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>691</v>
+        <v>862</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>0</v>
@@ -4601,10 +5272,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>690</v>
+        <v>861</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>689</v>
+        <v>860</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
@@ -4613,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>688</v>
+        <v>857</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>2</v>
@@ -4622,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>687</v>
+        <v>780</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>0</v>
@@ -4630,10 +5301,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>686</v>
+        <v>859</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>685</v>
+        <v>858</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -4642,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>684</v>
+        <v>857</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>2</v>
@@ -4651,18 +5322,18 @@
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>683</v>
+        <v>254</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>682</v>
+        <v>856</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>681</v>
+        <v>855</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
@@ -4671,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>680</v>
+        <v>852</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>2</v>
@@ -4680,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>679</v>
+        <v>776</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>0</v>
@@ -4688,10 +5359,10 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>678</v>
+        <v>854</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>677</v>
+        <v>853</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -4700,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>676</v>
+        <v>852</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>2</v>
@@ -4709,18 +5380,18 @@
         <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>675</v>
+        <v>254</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>674</v>
+        <v>851</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>673</v>
+        <v>850</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -4729,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>672</v>
+        <v>849</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>2</v>
@@ -4738,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>671</v>
+        <v>848</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>0</v>
@@ -4746,10 +5417,10 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>670</v>
+        <v>847</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>669</v>
+        <v>846</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
@@ -4758,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>668</v>
+        <v>845</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>2</v>
@@ -4767,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>667</v>
+        <v>844</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>0</v>
@@ -4775,10 +5446,10 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>666</v>
+        <v>843</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>665</v>
+        <v>842</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
@@ -4787,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>664</v>
+        <v>839</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>2</v>
@@ -4796,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>663</v>
+        <v>776</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>0</v>
@@ -4804,10 +5475,10 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>662</v>
+        <v>841</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>661</v>
+        <v>840</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -4816,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>660</v>
+        <v>839</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>2</v>
@@ -4825,18 +5496,18 @@
         <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>659</v>
+        <v>254</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>658</v>
+        <v>838</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>657</v>
+        <v>837</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -4845,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>656</v>
+        <v>836</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>2</v>
@@ -4854,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>655</v>
+        <v>835</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>0</v>
@@ -4862,10 +5533,10 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>654</v>
+        <v>834</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>653</v>
+        <v>833</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
@@ -4874,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>652</v>
+        <v>832</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>2</v>
@@ -4883,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>651</v>
+        <v>831</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>0</v>
@@ -4891,10 +5562,10 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>650</v>
+        <v>830</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>649</v>
+        <v>829</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -4903,22 +5574,16 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>648</v>
+        <v>828</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1074</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1075</v>
+        <v>2</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>220</v>
+        <v>827</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>0</v>
@@ -4926,10 +5591,10 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>647</v>
+        <v>826</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>646</v>
+        <v>825</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
@@ -4938,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>645</v>
+        <v>824</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>2</v>
@@ -4947,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>220</v>
+        <v>823</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>0</v>
@@ -4955,10 +5620,10 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>644</v>
+        <v>822</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>643</v>
+        <v>821</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>4</v>
@@ -4967,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>642</v>
+        <v>820</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>2</v>
@@ -4976,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>604</v>
+        <v>819</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>0</v>
@@ -4984,10 +5649,10 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>641</v>
+        <v>818</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>640</v>
+        <v>817</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>4</v>
@@ -4996,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>639</v>
+        <v>816</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>2</v>
@@ -5005,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>0</v>
@@ -5013,10 +5678,10 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>638</v>
+        <v>814</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>637</v>
+        <v>811</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
@@ -5025,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>636</v>
+        <v>810</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>2</v>
@@ -5034,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>596</v>
+        <v>813</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>0</v>
@@ -5042,10 +5707,10 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>635</v>
+        <v>812</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>634</v>
+        <v>811</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>4</v>
@@ -5054,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>633</v>
+        <v>810</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>2</v>
@@ -5063,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>632</v>
+        <v>809</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>0</v>
@@ -5071,10 +5736,10 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>631</v>
+        <v>808</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>630</v>
+        <v>804</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>4</v>
@@ -5083,22 +5748,16 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>629</v>
+        <v>803</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1070</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1071</v>
+        <v>2</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>220</v>
+        <v>780</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>0</v>
@@ -5106,10 +5765,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>628</v>
+        <v>807</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>627</v>
+        <v>806</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>4</v>
@@ -5118,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>626</v>
+        <v>803</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>2</v>
@@ -5127,18 +5786,18 @@
         <v>1</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>625</v>
+        <v>805</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>4</v>
@@ -5147,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>623</v>
+        <v>803</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>2</v>
@@ -5156,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>604</v>
+        <v>802</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>0</v>
@@ -5164,10 +5823,10 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>622</v>
+        <v>801</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>621</v>
+        <v>800</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>4</v>
@@ -5176,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>620</v>
+        <v>799</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>2</v>
@@ -5185,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>0</v>
@@ -5193,10 +5852,10 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>619</v>
+        <v>798</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>618</v>
+        <v>797</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>4</v>
@@ -5205,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>617</v>
+        <v>796</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>2</v>
@@ -5214,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>596</v>
+        <v>776</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>0</v>
@@ -5222,10 +5881,10 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>616</v>
+        <v>795</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>615</v>
+        <v>794</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>4</v>
@@ -5234,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>614</v>
+        <v>793</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>2</v>
@@ -5243,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>592</v>
+        <v>780</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>0</v>
@@ -5251,10 +5910,10 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>613</v>
+        <v>792</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>612</v>
+        <v>791</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>4</v>
@@ -5263,22 +5922,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>611</v>
+        <v>790</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="1">
-        <v>1072</v>
-      </c>
-      <c r="L40" s="1">
-        <v>1073</v>
+        <v>2</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>220</v>
+        <v>776</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>0</v>
@@ -5286,10 +5939,10 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>610</v>
+        <v>789</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>609</v>
+        <v>788</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>4</v>
@@ -5298,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>608</v>
+        <v>787</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>2</v>
@@ -5307,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>220</v>
+        <v>780</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>0</v>
@@ -5315,10 +5968,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>607</v>
+        <v>786</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>606</v>
+        <v>785</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>4</v>
@@ -5327,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>605</v>
+        <v>784</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>2</v>
@@ -5336,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>604</v>
+        <v>776</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>0</v>
@@ -5344,10 +5997,10 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>603</v>
+        <v>783</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>602</v>
+        <v>782</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>4</v>
@@ -5356,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>601</v>
+        <v>781</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>2</v>
@@ -5365,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>0</v>
@@ -5373,10 +6026,10 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>599</v>
+        <v>779</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>598</v>
+        <v>778</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>4</v>
@@ -5385,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>597</v>
+        <v>777</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>2</v>
@@ -5394,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>596</v>
+        <v>776</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>0</v>
@@ -5402,10 +6055,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>595</v>
+        <v>775</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>594</v>
+        <v>774</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>4</v>
@@ -5414,16 +6067,22 @@
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>593</v>
+        <v>773</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1074</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1075</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>592</v>
+        <v>232</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>0</v>
@@ -5431,10 +6090,10 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>591</v>
+        <v>772</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>590</v>
+        <v>771</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>4</v>
@@ -5443,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>589</v>
+        <v>770</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>2</v>
@@ -5452,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>0</v>
@@ -5460,10 +6119,10 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>588</v>
+        <v>769</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>587</v>
+        <v>768</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>4</v>
@@ -5472,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>586</v>
+        <v>767</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>2</v>
@@ -5481,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>543</v>
+        <v>693</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>0</v>
@@ -5489,10 +6148,10 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>585</v>
+        <v>766</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>584</v>
+        <v>765</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>4</v>
@@ -5501,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>583</v>
+        <v>764</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>2</v>
@@ -5510,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>539</v>
+        <v>689</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>0</v>
@@ -5518,10 +6177,10 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>582</v>
+        <v>763</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>581</v>
+        <v>762</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>4</v>
@@ -5530,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>580</v>
+        <v>761</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>2</v>
@@ -5539,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>535</v>
+        <v>685</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>0</v>
@@ -5547,10 +6206,10 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>579</v>
+        <v>760</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>4</v>
@@ -5559,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>577</v>
+        <v>758</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>2</v>
@@ -5568,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>333</v>
+        <v>681</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>0</v>
@@ -5576,10 +6235,10 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>576</v>
+        <v>757</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>575</v>
+        <v>756</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>4</v>
@@ -5588,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>574</v>
+        <v>755</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>2</v>
@@ -5597,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>333</v>
+        <v>730</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>0</v>
@@ -5605,10 +6264,10 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>573</v>
+        <v>754</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>572</v>
+        <v>753</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>4</v>
@@ -5617,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>571</v>
+        <v>752</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>2</v>
@@ -5626,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>525</v>
+        <v>673</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>0</v>
@@ -5634,10 +6293,10 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>570</v>
+        <v>751</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>569</v>
+        <v>750</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>4</v>
@@ -5646,16 +6305,22 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>568</v>
+        <v>749</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1076</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1077</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>220</v>
+        <v>506</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>0</v>
@@ -5663,10 +6328,10 @@
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>567</v>
+        <v>748</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>566</v>
+        <v>747</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>4</v>
@@ -5675,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>565</v>
+        <v>746</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>2</v>
@@ -5684,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>0</v>
@@ -5692,10 +6357,10 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>564</v>
+        <v>745</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>563</v>
+        <v>744</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>4</v>
@@ -5704,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>562</v>
+        <v>743</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>2</v>
@@ -5713,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>539</v>
+        <v>693</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>0</v>
@@ -5721,10 +6386,10 @@
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>561</v>
+        <v>742</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>560</v>
+        <v>741</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>4</v>
@@ -5733,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>559</v>
+        <v>740</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>2</v>
@@ -5742,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>535</v>
+        <v>689</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>0</v>
@@ -5750,10 +6415,10 @@
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>558</v>
+        <v>739</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>557</v>
+        <v>738</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>4</v>
@@ -5762,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>556</v>
+        <v>737</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>2</v>
@@ -5771,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>333</v>
+        <v>685</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>0</v>
@@ -5779,10 +6444,10 @@
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>555</v>
+        <v>736</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>554</v>
+        <v>735</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>4</v>
@@ -5791,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>553</v>
+        <v>734</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>2</v>
@@ -5800,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>333</v>
+        <v>681</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>0</v>
@@ -5808,10 +6473,10 @@
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>552</v>
+        <v>733</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>551</v>
+        <v>732</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>4</v>
@@ -5820,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>550</v>
+        <v>731</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>2</v>
@@ -5829,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>525</v>
+        <v>730</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>0</v>
@@ -5837,10 +6502,10 @@
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>549</v>
+        <v>729</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>548</v>
+        <v>728</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>4</v>
@@ -5849,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>547</v>
+        <v>727</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>2</v>
@@ -5858,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>220</v>
+        <v>673</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>0</v>
@@ -5866,10 +6531,10 @@
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>546</v>
+        <v>726</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>545</v>
+        <v>725</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>4</v>
@@ -5878,16 +6543,22 @@
         <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>544</v>
+        <v>724</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1070</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1071</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>543</v>
+        <v>232</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>0</v>
@@ -5895,10 +6566,10 @@
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>542</v>
+        <v>723</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>541</v>
+        <v>722</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>4</v>
@@ -5907,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>540</v>
+        <v>721</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>2</v>
@@ -5916,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>539</v>
+        <v>232</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>0</v>
@@ -5924,10 +6595,10 @@
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>538</v>
+        <v>720</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>537</v>
+        <v>719</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>4</v>
@@ -5936,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>536</v>
+        <v>718</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>2</v>
@@ -5945,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>535</v>
+        <v>693</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>0</v>
@@ -5953,10 +6624,10 @@
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>534</v>
+        <v>717</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>533</v>
+        <v>716</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>4</v>
@@ -5965,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>532</v>
+        <v>715</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>2</v>
@@ -5974,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>333</v>
+        <v>689</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>0</v>
@@ -5982,10 +6653,10 @@
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>531</v>
+        <v>714</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>530</v>
+        <v>713</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4</v>
@@ -5994,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>529</v>
+        <v>712</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>2</v>
@@ -6003,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>333</v>
+        <v>685</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>0</v>
@@ -6011,10 +6682,10 @@
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>528</v>
+        <v>711</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>527</v>
+        <v>710</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
@@ -6023,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>526</v>
+        <v>709</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>2</v>
@@ -6032,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>525</v>
+        <v>681</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>0</v>
@@ -6040,37 +6711,28 @@
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>524</v>
+        <v>708</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>523</v>
+        <v>707</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>521</v>
+        <v>706</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="1">
-        <v>1036</v>
-      </c>
-      <c r="L72" s="1">
-        <v>1037</v>
+        <v>2</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>220</v>
+        <v>677</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>0</v>
@@ -6078,37 +6740,28 @@
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>520</v>
+        <v>705</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>519</v>
+        <v>704</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>517</v>
+        <v>703</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K73" s="1">
-        <v>1038</v>
-      </c>
-      <c r="L73" s="1">
-        <v>1039</v>
+        <v>2</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>220</v>
+        <v>673</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>0</v>
@@ -6116,37 +6769,34 @@
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>516</v>
+        <v>702</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>515</v>
+        <v>701</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>513</v>
+        <v>700</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K75" s="1">
-        <v>1040</v>
+        <v>1072</v>
       </c>
       <c r="L75" s="1">
-        <v>1041</v>
+        <v>1073</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>0</v>
@@ -6154,37 +6804,28 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>512</v>
+        <v>699</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>511</v>
+        <v>698</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>509</v>
+        <v>697</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="1">
-        <v>1042</v>
-      </c>
-      <c r="L76" s="1">
-        <v>1043</v>
+        <v>2</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>0</v>
@@ -6192,37 +6833,28 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>508</v>
+        <v>696</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>507</v>
+        <v>695</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>505</v>
+        <v>694</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K77" s="1">
-        <v>1044</v>
-      </c>
-      <c r="L77" s="1">
-        <v>1045</v>
+        <v>2</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>220</v>
+        <v>693</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>0</v>
@@ -6230,37 +6862,28 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>504</v>
+        <v>692</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>503</v>
+        <v>691</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>501</v>
+        <v>690</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K78" s="1">
-        <v>1046</v>
-      </c>
-      <c r="L78" s="1">
-        <v>1047</v>
+        <v>2</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>220</v>
+        <v>689</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>0</v>
@@ -6268,10 +6891,10 @@
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>499</v>
+        <v>687</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>4</v>
@@ -6280,19 +6903,16 @@
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>498</v>
+        <v>686</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K79" s="1">
-        <v>1050</v>
+        <v>2</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>220</v>
+        <v>685</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>0</v>
@@ -6300,10 +6920,10 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>497</v>
+        <v>684</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>496</v>
+        <v>683</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>4</v>
@@ -6312,19 +6932,16 @@
         <v>1</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>495</v>
+        <v>682</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="1">
-        <v>1052</v>
+        <v>2</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>220</v>
+        <v>681</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>0</v>
@@ -6332,37 +6949,28 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>494</v>
+        <v>680</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>493</v>
+        <v>679</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>491</v>
+        <v>678</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K82" s="1">
-        <v>1020</v>
-      </c>
-      <c r="L82" s="1">
-        <v>1021</v>
+        <v>2</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>220</v>
+        <v>677</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>0</v>
@@ -6370,37 +6978,28 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>490</v>
+        <v>676</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>489</v>
+        <v>675</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>487</v>
+        <v>674</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="1">
-        <v>1022</v>
-      </c>
-      <c r="L83" s="1">
-        <v>1023</v>
+        <v>2</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>220</v>
+        <v>673</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>0</v>
@@ -6408,37 +7007,28 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>486</v>
+        <v>672</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>485</v>
+        <v>671</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>483</v>
+        <v>670</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K84" s="1">
-        <v>1024</v>
-      </c>
-      <c r="L84" s="1">
-        <v>1025</v>
+        <v>2</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>0</v>
@@ -6446,37 +7036,28 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>482</v>
+        <v>669</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>481</v>
+        <v>668</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>479</v>
+        <v>667</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K85" s="1">
-        <v>1026</v>
-      </c>
-      <c r="L85" s="1">
-        <v>1027</v>
+        <v>2</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>220</v>
+        <v>591</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>0</v>
@@ -6484,37 +7065,28 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>478</v>
+        <v>666</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>477</v>
+        <v>665</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>475</v>
+        <v>664</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K87" s="1">
-        <v>1028</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1029</v>
+        <v>2</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>220</v>
+        <v>587</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>0</v>
@@ -6522,37 +7094,28 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>474</v>
+        <v>663</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>473</v>
+        <v>662</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>471</v>
+        <v>661</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K88" s="1">
-        <v>1030</v>
-      </c>
-      <c r="L88" s="1">
-        <v>1031</v>
+        <v>2</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>220</v>
+        <v>583</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>0</v>
@@ -6560,10 +7123,10 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>469</v>
+        <v>659</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>4</v>
@@ -6572,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>468</v>
+        <v>658</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>2</v>
@@ -6581,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>434</v>
+        <v>579</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>0</v>
@@ -6589,10 +7152,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>467</v>
+        <v>657</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>466</v>
+        <v>656</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>4</v>
@@ -6601,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>465</v>
+        <v>655</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>2</v>
@@ -6610,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>434</v>
+        <v>352</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>0</v>
@@ -6618,10 +7181,10 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>464</v>
+        <v>654</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>463</v>
+        <v>653</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>4</v>
@@ -6630,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>462</v>
+        <v>652</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>2</v>
@@ -6639,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>434</v>
+        <v>352</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>0</v>
@@ -6647,10 +7210,10 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>461</v>
+        <v>651</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>460</v>
+        <v>650</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>4</v>
@@ -6659,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>459</v>
+        <v>649</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>2</v>
@@ -6668,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>434</v>
+        <v>569</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>0</v>
@@ -6676,10 +7239,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>458</v>
+        <v>648</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>457</v>
+        <v>647</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>4</v>
@@ -6688,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>456</v>
+        <v>646</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>2</v>
@@ -6697,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>0</v>
@@ -6705,10 +7268,10 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>455</v>
+        <v>645</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>454</v>
+        <v>644</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>4</v>
@@ -6717,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>453</v>
+        <v>643</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>2</v>
@@ -6726,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>434</v>
+        <v>591</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>0</v>
@@ -6734,10 +7297,10 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>452</v>
+        <v>642</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>451</v>
+        <v>641</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>4</v>
@@ -6746,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>450</v>
+        <v>640</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>2</v>
@@ -6755,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>434</v>
+        <v>587</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>0</v>
@@ -6763,10 +7326,10 @@
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>449</v>
+        <v>639</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>448</v>
+        <v>638</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>4</v>
@@ -6775,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>447</v>
+        <v>637</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>2</v>
@@ -6784,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>434</v>
+        <v>636</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>0</v>
@@ -6792,10 +7355,10 @@
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>446</v>
+        <v>635</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>445</v>
+        <v>634</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>4</v>
@@ -6804,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>444</v>
+        <v>633</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>2</v>
@@ -6813,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>434</v>
+        <v>579</v>
       </c>
       <c r="P99" s="1" t="s">
         <v>0</v>
@@ -6821,10 +7384,10 @@
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>443</v>
+        <v>632</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>442</v>
+        <v>631</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>4</v>
@@ -6833,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>441</v>
+        <v>630</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>2</v>
@@ -6842,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>434</v>
+        <v>629</v>
       </c>
       <c r="P100" s="1" t="s">
         <v>0</v>
@@ -6850,10 +7413,10 @@
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>440</v>
+        <v>628</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>439</v>
+        <v>627</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>4</v>
@@ -6862,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>438</v>
+        <v>626</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>2</v>
@@ -6871,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>434</v>
+        <v>625</v>
       </c>
       <c r="P101" s="1" t="s">
         <v>0</v>
@@ -6879,10 +7442,10 @@
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>437</v>
+        <v>624</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>436</v>
+        <v>623</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>4</v>
@@ -6891,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>435</v>
+        <v>622</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>2</v>
@@ -6900,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>434</v>
+        <v>569</v>
       </c>
       <c r="P102" s="1" t="s">
         <v>0</v>
@@ -6908,10 +7471,10 @@
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>433</v>
+        <v>621</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>432</v>
+        <v>620</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>4</v>
@@ -6920,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>431</v>
+        <v>619</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>2</v>
@@ -6929,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="P103" s="1" t="s">
         <v>0</v>
@@ -6937,10 +7500,10 @@
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>430</v>
+        <v>618</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>429</v>
+        <v>617</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>4</v>
@@ -6949,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>428</v>
+        <v>616</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>2</v>
@@ -6958,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>340</v>
+        <v>591</v>
       </c>
       <c r="P105" s="1" t="s">
         <v>0</v>
@@ -6966,10 +7529,10 @@
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>427</v>
+        <v>615</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>426</v>
+        <v>614</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>4</v>
@@ -6978,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>425</v>
+        <v>613</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>2</v>
@@ -6987,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>340</v>
+        <v>587</v>
       </c>
       <c r="P106" s="1" t="s">
         <v>0</v>
@@ -6995,10 +7558,10 @@
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>424</v>
+        <v>612</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>423</v>
+        <v>611</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>4</v>
@@ -7007,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>422</v>
+        <v>610</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>2</v>
@@ -7016,7 +7579,7 @@
         <v>1</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>340</v>
+        <v>583</v>
       </c>
       <c r="P107" s="1" t="s">
         <v>0</v>
@@ -7024,10 +7587,10 @@
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>421</v>
+        <v>609</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>420</v>
+        <v>608</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>4</v>
@@ -7036,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>419</v>
+        <v>607</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>2</v>
@@ -7045,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>340</v>
+        <v>579</v>
       </c>
       <c r="P108" s="1" t="s">
         <v>0</v>
@@ -7053,10 +7616,10 @@
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>418</v>
+        <v>606</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>417</v>
+        <v>605</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>4</v>
@@ -7065,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>416</v>
+        <v>604</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>2</v>
@@ -7074,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="P109" s="1" t="s">
         <v>0</v>
@@ -7082,10 +7645,10 @@
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>415</v>
+        <v>603</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>414</v>
+        <v>602</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>4</v>
@@ -7094,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>413</v>
+        <v>601</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>2</v>
@@ -7103,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="P111" s="1" t="s">
         <v>0</v>
@@ -7111,10 +7674,10 @@
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>412</v>
+        <v>600</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>411</v>
+        <v>599</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>4</v>
@@ -7123,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>410</v>
+        <v>598</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>2</v>
@@ -7132,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>340</v>
+        <v>569</v>
       </c>
       <c r="P112" s="1" t="s">
         <v>0</v>
@@ -7140,10 +7703,10 @@
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>409</v>
+        <v>597</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>408</v>
+        <v>596</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>4</v>
@@ -7152,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>407</v>
+        <v>595</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>2</v>
@@ -7161,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="P113" s="1" t="s">
         <v>0</v>
@@ -7169,10 +7732,10 @@
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>406</v>
+        <v>594</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>405</v>
+        <v>593</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>4</v>
@@ -7181,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>404</v>
+        <v>592</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>2</v>
@@ -7190,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>340</v>
+        <v>591</v>
       </c>
       <c r="P114" s="1" t="s">
         <v>0</v>
@@ -7198,10 +7761,10 @@
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>403</v>
+        <v>590</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>402</v>
+        <v>589</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>4</v>
@@ -7210,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>401</v>
+        <v>588</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>2</v>
@@ -7219,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>340</v>
+        <v>587</v>
       </c>
       <c r="P115" s="1" t="s">
         <v>0</v>
@@ -7227,10 +7790,10 @@
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>400</v>
+        <v>586</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>399</v>
+        <v>585</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>4</v>
@@ -7239,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>398</v>
+        <v>584</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>2</v>
@@ -7248,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>340</v>
+        <v>583</v>
       </c>
       <c r="P117" s="1" t="s">
         <v>0</v>
@@ -7256,10 +7819,10 @@
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>397</v>
+        <v>582</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>396</v>
+        <v>581</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>4</v>
@@ -7268,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>395</v>
+        <v>580</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>2</v>
@@ -7277,7 +7840,7 @@
         <v>1</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>388</v>
+        <v>579</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>0</v>
@@ -7285,10 +7848,10 @@
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>394</v>
+        <v>578</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>393</v>
+        <v>577</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>4</v>
@@ -7297,7 +7860,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>392</v>
+        <v>576</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>2</v>
@@ -7306,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="P119" s="1" t="s">
         <v>0</v>
@@ -7314,10 +7877,10 @@
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>391</v>
+        <v>575</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>390</v>
+        <v>574</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>4</v>
@@ -7326,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>389</v>
+        <v>573</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>2</v>
@@ -7335,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="P120" s="1" t="s">
         <v>0</v>
@@ -7343,10 +7906,10 @@
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>387</v>
+        <v>572</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>386</v>
+        <v>571</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>4</v>
@@ -7355,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>385</v>
+        <v>570</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>2</v>
@@ -7364,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>384</v>
+        <v>569</v>
       </c>
       <c r="P121" s="1" t="s">
         <v>0</v>
@@ -7372,28 +7935,37 @@
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>383</v>
+        <v>568</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>382</v>
+        <v>567</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>381</v>
+        <v>566</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K123" s="1">
+        <v>1036</v>
+      </c>
+      <c r="L123" s="1">
+        <v>1037</v>
       </c>
       <c r="N123" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="P123" s="1" t="s">
         <v>0</v>
@@ -7401,28 +7973,37 @@
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>380</v>
+        <v>564</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F124" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>376</v>
+        <v>562</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K124" s="1">
+        <v>1038</v>
+      </c>
+      <c r="L124" s="1">
+        <v>1039</v>
       </c>
       <c r="N124" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>370</v>
+        <v>232</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>0</v>
@@ -7430,57 +8011,75 @@
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>378</v>
+        <v>560</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>377</v>
+        <v>559</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F125" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>376</v>
+        <v>558</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K125" s="1">
+        <v>1040</v>
+      </c>
+      <c r="L125" s="1">
+        <v>1041</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>374</v>
+        <v>555</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F126" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>373</v>
+        <v>554</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K126" s="1">
+        <v>1042</v>
+      </c>
+      <c r="L126" s="1">
+        <v>1043</v>
       </c>
       <c r="N126" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="P126" s="1" t="s">
         <v>0</v>
@@ -7488,28 +8087,37 @@
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>372</v>
+        <v>552</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>371</v>
+        <v>551</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F127" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>367</v>
+        <v>550</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K127" s="1">
+        <v>1044</v>
+      </c>
+      <c r="L127" s="1">
+        <v>1045</v>
       </c>
       <c r="N127" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>370</v>
+        <v>232</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>0</v>
@@ -7517,39 +8125,48 @@
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>369</v>
+        <v>548</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>368</v>
+        <v>547</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F129" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>367</v>
+        <v>546</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K129" s="1">
+        <v>1046</v>
+      </c>
+      <c r="L129" s="1">
+        <v>1047</v>
       </c>
       <c r="N129" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>366</v>
+        <v>544</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>365</v>
+        <v>543</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>4</v>
@@ -7558,16 +8175,19 @@
         <v>1</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>364</v>
+        <v>542</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K130" s="1">
+        <v>1050</v>
       </c>
       <c r="N130" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="P130" s="1" t="s">
         <v>0</v>
@@ -7575,10 +8195,10 @@
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>362</v>
+        <v>541</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>361</v>
+        <v>540</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>4</v>
@@ -7587,16 +8207,19 @@
         <v>1</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>360</v>
+        <v>539</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K131" s="1">
+        <v>1052</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>359</v>
+        <v>232</v>
       </c>
       <c r="P131" s="1" t="s">
         <v>0</v>
@@ -7604,28 +8227,37 @@
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>358</v>
+        <v>538</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>357</v>
+        <v>537</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F132" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>356</v>
+        <v>536</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K132" s="1">
+        <v>1020</v>
+      </c>
+      <c r="L132" s="1">
+        <v>1021</v>
       </c>
       <c r="N132" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="P132" s="1" t="s">
         <v>0</v>
@@ -7633,28 +8265,37 @@
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>355</v>
+        <v>534</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>354</v>
+        <v>533</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>353</v>
+        <v>532</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K133" s="1">
+        <v>1022</v>
+      </c>
+      <c r="L133" s="1">
+        <v>1023</v>
       </c>
       <c r="N133" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>0</v>
@@ -7662,28 +8303,37 @@
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>352</v>
+        <v>530</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>351</v>
+        <v>529</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>350</v>
+        <v>528</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K135" s="1">
+        <v>1024</v>
+      </c>
+      <c r="L135" s="1">
+        <v>1025</v>
       </c>
       <c r="N135" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="P135" s="1" t="s">
         <v>0</v>
@@ -7691,28 +8341,37 @@
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>349</v>
+        <v>526</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>348</v>
+        <v>525</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F136" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>347</v>
+        <v>524</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K136" s="1">
+        <v>1026</v>
+      </c>
+      <c r="L136" s="1">
+        <v>1027</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>0</v>
@@ -7720,28 +8379,37 @@
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>346</v>
+        <v>522</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>345</v>
+        <v>521</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F137" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>344</v>
+        <v>520</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K137" s="1">
+        <v>1028</v>
+      </c>
+      <c r="L137" s="1">
+        <v>1029</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="P137" s="1" t="s">
         <v>0</v>
@@ -7749,28 +8417,37 @@
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>343</v>
+        <v>518</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>342</v>
+        <v>517</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F138" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>341</v>
+        <v>516</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K138" s="1">
+        <v>1030</v>
+      </c>
+      <c r="L138" s="1">
+        <v>1031</v>
       </c>
       <c r="N138" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="P138" s="1" t="s">
         <v>0</v>
@@ -7778,28 +8455,37 @@
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>339</v>
+        <v>514</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>338</v>
+        <v>513</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F139" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>337</v>
+        <v>512</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K139" s="1">
+        <v>1032</v>
+      </c>
+      <c r="L139" s="1">
+        <v>1033</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>329</v>
+        <v>506</v>
       </c>
       <c r="P139" s="1" t="s">
         <v>0</v>
@@ -7807,28 +8493,37 @@
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>336</v>
+        <v>510</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>335</v>
+        <v>509</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>334</v>
+        <v>508</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K141" s="1">
+        <v>1034</v>
+      </c>
+      <c r="L141" s="1">
+        <v>1035</v>
       </c>
       <c r="N141" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>333</v>
+        <v>506</v>
       </c>
       <c r="P141" s="1" t="s">
         <v>0</v>
@@ -7836,10 +8531,10 @@
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>332</v>
+        <v>505</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>331</v>
+        <v>504</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>4</v>
@@ -7848,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>330</v>
+        <v>503</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>2</v>
@@ -7857,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>329</v>
+        <v>463</v>
       </c>
       <c r="P142" s="1" t="s">
         <v>0</v>
@@ -7865,10 +8560,10 @@
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>327</v>
+        <v>501</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>4</v>
@@ -7877,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>2</v>
@@ -7886,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>319</v>
+        <v>463</v>
       </c>
       <c r="P143" s="1" t="s">
         <v>0</v>
@@ -7894,10 +8589,10 @@
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>325</v>
+        <v>499</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>324</v>
+        <v>498</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>4</v>
@@ -7906,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>323</v>
+        <v>497</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>2</v>
@@ -7915,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>319</v>
+        <v>463</v>
       </c>
       <c r="P144" s="1" t="s">
         <v>0</v>
@@ -7923,10 +8618,10 @@
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>322</v>
+        <v>496</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>321</v>
+        <v>495</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>4</v>
@@ -7935,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>320</v>
+        <v>494</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>2</v>
@@ -7944,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>319</v>
+        <v>463</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>0</v>
@@ -7952,10 +8647,10 @@
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>318</v>
+        <v>493</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>317</v>
+        <v>492</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>4</v>
@@ -7964,22 +8659,16 @@
         <v>1</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>316</v>
+        <v>491</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K147" s="1">
-        <v>1011</v>
-      </c>
-      <c r="L147" s="1">
-        <v>1012</v>
+        <v>2</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="P147" s="1" t="s">
         <v>0</v>
@@ -7987,10 +8676,10 @@
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>314</v>
+        <v>490</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>313</v>
+        <v>489</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>4</v>
@@ -7999,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>312</v>
+        <v>488</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>2</v>
@@ -8008,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>311</v>
+        <v>463</v>
       </c>
       <c r="P148" s="1" t="s">
         <v>0</v>
@@ -8016,10 +8705,10 @@
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>310</v>
+        <v>487</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>309</v>
+        <v>486</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>4</v>
@@ -8028,22 +8717,16 @@
         <v>1</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>308</v>
+        <v>485</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K149" s="1">
-        <v>1006</v>
-      </c>
-      <c r="L149" s="1">
-        <v>1006</v>
+        <v>2</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>220</v>
+        <v>463</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>0</v>
@@ -8051,10 +8734,10 @@
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>307</v>
+        <v>484</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>306</v>
+        <v>483</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>4</v>
@@ -8063,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>305</v>
+        <v>482</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>2</v>
@@ -8072,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>304</v>
+        <v>463</v>
       </c>
       <c r="P150" s="1" t="s">
         <v>0</v>
@@ -8080,10 +8763,10 @@
     </row>
     <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>303</v>
+        <v>481</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>302</v>
+        <v>480</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>4</v>
@@ -8092,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>301</v>
+        <v>479</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>2</v>
@@ -8101,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>300</v>
+        <v>463</v>
       </c>
       <c r="P151" s="1" t="s">
         <v>0</v>
@@ -8109,10 +8792,10 @@
     </row>
     <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>299</v>
+        <v>478</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>298</v>
+        <v>477</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>4</v>
@@ -8121,7 +8804,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>297</v>
+        <v>476</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>2</v>
@@ -8130,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>296</v>
+        <v>463</v>
       </c>
       <c r="P153" s="1" t="s">
         <v>0</v>
@@ -8138,10 +8821,10 @@
     </row>
     <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>295</v>
+        <v>475</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>294</v>
+        <v>474</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>4</v>
@@ -8150,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>293</v>
+        <v>473</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>2</v>
@@ -8159,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>292</v>
+        <v>463</v>
       </c>
       <c r="P154" s="1" t="s">
         <v>0</v>
@@ -8167,10 +8850,10 @@
     </row>
     <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>291</v>
+        <v>472</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>290</v>
+        <v>471</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>4</v>
@@ -8179,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>289</v>
+        <v>470</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>2</v>
@@ -8188,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>288</v>
+        <v>463</v>
       </c>
       <c r="P155" s="1" t="s">
         <v>0</v>
@@ -8196,10 +8879,10 @@
     </row>
     <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>287</v>
+        <v>469</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>286</v>
+        <v>468</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>4</v>
@@ -8208,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>285</v>
+        <v>467</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>2</v>
@@ -8217,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>284</v>
+        <v>463</v>
       </c>
       <c r="P156" s="1" t="s">
         <v>0</v>
@@ -8225,10 +8908,10 @@
     </row>
     <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>283</v>
+        <v>466</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>282</v>
+        <v>465</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>4</v>
@@ -8237,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>281</v>
+        <v>464</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>2</v>
@@ -8246,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>280</v>
+        <v>463</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>0</v>
@@ -8254,10 +8937,10 @@
     </row>
     <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>279</v>
+        <v>462</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>4</v>
@@ -8266,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>2</v>
@@ -8275,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>0</v>
@@ -8283,10 +8966,10 @@
     </row>
     <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>276</v>
+        <v>459</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>275</v>
+        <v>458</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>4</v>
@@ -8295,7 +8978,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>274</v>
+        <v>457</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>2</v>
@@ -8304,18 +8987,18 @@
         <v>1</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>272</v>
+        <v>455</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>4</v>
@@ -8324,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>268</v>
+        <v>454</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>2</v>
@@ -8333,7 +9016,7 @@
         <v>1</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="P161" s="1" t="s">
         <v>0</v>
@@ -8341,10 +9024,10 @@
     </row>
     <row r="162" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>270</v>
+        <v>453</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>269</v>
+        <v>452</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>4</v>
@@ -8353,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>268</v>
+        <v>451</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>2</v>
@@ -8362,18 +9045,18 @@
         <v>1</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>4</v>
@@ -8382,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>262</v>
+        <v>448</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>2</v>
@@ -8391,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="P163" s="1" t="s">
         <v>0</v>
@@ -8399,10 +9082,10 @@
     </row>
     <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>264</v>
+        <v>447</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>263</v>
+        <v>446</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>4</v>
@@ -8411,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>262</v>
+        <v>445</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>2</v>
@@ -8420,18 +9103,18 @@
         <v>1</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>260</v>
+        <v>443</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>4</v>
@@ -8440,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>259</v>
+        <v>442</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>2</v>
@@ -8449,7 +9132,7 @@
         <v>1</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>258</v>
+        <v>359</v>
       </c>
       <c r="P166" s="1" t="s">
         <v>0</v>
@@ -8457,10 +9140,10 @@
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>257</v>
+        <v>441</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>256</v>
+        <v>440</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>4</v>
@@ -8469,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>2</v>
@@ -8478,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="P167" s="1" t="s">
         <v>0</v>
@@ -8486,10 +9169,10 @@
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>253</v>
+        <v>438</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>252</v>
+        <v>437</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>4</v>
@@ -8498,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>251</v>
+        <v>436</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>2</v>
@@ -8507,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="P168" s="1" t="s">
         <v>0</v>
@@ -8515,10 +9198,10 @@
     </row>
     <row r="169" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>249</v>
+        <v>435</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>248</v>
+        <v>434</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>4</v>
@@ -8527,7 +9210,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>247</v>
+        <v>433</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>2</v>
@@ -8536,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="P169" s="1" t="s">
         <v>0</v>
@@ -8544,10 +9227,10 @@
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>246</v>
+        <v>432</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>245</v>
+        <v>431</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>4</v>
@@ -8556,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>244</v>
+        <v>430</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>2</v>
@@ -8565,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="P171" s="1" t="s">
         <v>0</v>
@@ -8573,10 +9256,10 @@
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>243</v>
+        <v>429</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>242</v>
+        <v>428</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>4</v>
@@ -8585,22 +9268,16 @@
         <v>1</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>239</v>
+        <v>427</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K172" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L172" s="1">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="P172" s="1" t="s">
         <v>0</v>
@@ -8608,10 +9285,10 @@
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>241</v>
+        <v>426</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>4</v>
@@ -8620,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>239</v>
+        <v>424</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>2</v>
@@ -8629,18 +9306,18 @@
         <v>1</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>236</v>
+        <v>423</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>235</v>
+        <v>422</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>4</v>
@@ -8649,22 +9326,16 @@
         <v>1</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K174" s="1">
-        <v>1001</v>
-      </c>
-      <c r="L174" s="1">
-        <v>1001</v>
+        <v>2</v>
       </c>
       <c r="N174" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="P174" s="1" t="s">
         <v>0</v>
@@ -8672,10 +9343,10 @@
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>233</v>
+        <v>420</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>232</v>
+        <v>419</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>4</v>
@@ -8684,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>231</v>
+        <v>418</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>2</v>
@@ -8693,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>230</v>
+        <v>411</v>
       </c>
       <c r="P175" s="1" t="s">
         <v>0</v>
@@ -8701,10 +9372,10 @@
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>229</v>
+        <v>417</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>228</v>
+        <v>416</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>4</v>
@@ -8713,22 +9384,16 @@
         <v>1</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>227</v>
+        <v>415</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K177" s="1">
-        <v>1003</v>
-      </c>
-      <c r="L177" s="1">
-        <v>1003</v>
+        <v>2</v>
       </c>
       <c r="N177" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="P177" s="1" t="s">
         <v>0</v>
@@ -8736,10 +9401,10 @@
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>226</v>
+        <v>414</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>225</v>
+        <v>413</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>4</v>
@@ -8748,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>224</v>
+        <v>412</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>2</v>
@@ -8757,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="P178" s="1" t="s">
         <v>0</v>
@@ -8765,10 +9430,10 @@
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>223</v>
+        <v>410</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>222</v>
+        <v>409</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>4</v>
@@ -8777,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>221</v>
+        <v>408</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>2</v>
@@ -8786,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="P179" s="1" t="s">
         <v>0</v>
@@ -8794,10 +9459,10 @@
     </row>
     <row r="180" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>219</v>
+        <v>406</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>218</v>
+        <v>405</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>4</v>
@@ -8806,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>217</v>
+        <v>404</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>2</v>
@@ -8815,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="P180" s="1" t="s">
         <v>0</v>
@@ -8823,10 +9488,10 @@
     </row>
     <row r="181" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>215</v>
+        <v>403</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>214</v>
+        <v>402</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>4</v>
@@ -8835,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>213</v>
+        <v>399</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>2</v>
@@ -8844,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="O181" s="1" t="s">
-        <v>212</v>
+        <v>393</v>
       </c>
       <c r="P181" s="1" t="s">
         <v>0</v>
@@ -8852,10 +9517,10 @@
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>211</v>
+        <v>401</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>4</v>
@@ -8864,7 +9529,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>209</v>
+        <v>399</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>2</v>
@@ -8873,18 +9538,18 @@
         <v>1</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>207</v>
+        <v>398</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>206</v>
+        <v>397</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>4</v>
@@ -8893,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>205</v>
+        <v>396</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>2</v>
@@ -8902,7 +9567,7 @@
         <v>1</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="P184" s="1" t="s">
         <v>0</v>
@@ -8910,10 +9575,10 @@
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>203</v>
+        <v>395</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>202</v>
+        <v>394</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>4</v>
@@ -8922,7 +9587,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>2</v>
@@ -8931,7 +9596,7 @@
         <v>1</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="P185" s="1" t="s">
         <v>0</v>
@@ -8939,10 +9604,10 @@
     </row>
     <row r="186" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>199</v>
+        <v>392</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>198</v>
+        <v>391</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>4</v>
@@ -8951,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>197</v>
+        <v>390</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>2</v>
@@ -8960,18 +9625,18 @@
         <v>1</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>195</v>
+        <v>389</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>4</v>
@@ -8980,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>193</v>
+        <v>387</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>2</v>
@@ -8989,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>192</v>
+        <v>386</v>
       </c>
       <c r="P187" s="1" t="s">
         <v>0</v>
@@ -8997,10 +9662,10 @@
     </row>
     <row r="189" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>4</v>
@@ -9009,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>189</v>
+        <v>383</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>2</v>
@@ -9018,9 +9683,1518 @@
         <v>1</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>188</v>
+        <v>382</v>
       </c>
       <c r="P189" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F190" s="1">
+        <v>1</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F191" s="1">
+        <v>1</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F193" s="1">
+        <v>1</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" s="1">
+        <v>1</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F197" s="1">
+        <v>1</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="1">
+        <v>1</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" s="1">
+        <v>1</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" s="1">
+        <v>1</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" s="1">
+        <v>1</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F204" s="1">
+        <v>1</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" s="1">
+        <v>1</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F207" s="1">
+        <v>1</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K207" s="1">
+        <v>1011</v>
+      </c>
+      <c r="L207" s="1">
+        <v>1012</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F208" s="1">
+        <v>1</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" s="1">
+        <v>1</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K209" s="1">
+        <v>1006</v>
+      </c>
+      <c r="L209" s="1">
+        <v>1006</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" s="1">
+        <v>1</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F211" s="1">
+        <v>1</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F213" s="1">
+        <v>1</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P213" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F214" s="1">
+        <v>1</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N214" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F215" s="1">
+        <v>1</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P215" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F216" s="1">
+        <v>1</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F217" s="1">
+        <v>1</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="P219" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P220" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F221" s="1">
+        <v>1</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="P221" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F222" s="1">
+        <v>1</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P222" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F223" s="1">
+        <v>1</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F225" s="1">
+        <v>1</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P225" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" s="1">
+        <v>1</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P226" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F227" s="1">
+        <v>1</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P227" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F228" s="1">
+        <v>1</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P228" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F229" s="1">
+        <v>1</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P229" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F231" s="1">
+        <v>1</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P231" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F232" s="1">
+        <v>1</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K232" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L232" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F233" s="1">
+        <v>1</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P233" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" s="1">
+        <v>1</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K234" s="1">
+        <v>1001</v>
+      </c>
+      <c r="L234" s="1">
+        <v>1001</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F235" s="1">
+        <v>1</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P235" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F237" s="1">
+        <v>1</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K237" s="1">
+        <v>1003</v>
+      </c>
+      <c r="L237" s="1">
+        <v>1003</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P237" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F238" s="1">
+        <v>1</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P238" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P239" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F240" s="1">
+        <v>1</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P240" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F241" s="1">
+        <v>1</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P241" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F243" s="1">
+        <v>1</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P243" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F244" s="1">
+        <v>1</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P244" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F245" s="1">
+        <v>1</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P245" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F246" s="1">
+        <v>1</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P246" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F247" s="1">
+        <v>1</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P247" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F249" s="1">
+        <v>1</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F250" s="1">
+        <v>1</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P250" s="1" t="s">
         <v>0</v>
       </c>
     </row>
